--- a/reference/Core6ResourcesTable20231116.xlsx
+++ b/reference/Core6ResourcesTable20231116.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kohe/GitHub/clinical-core/reference/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FE15744A-FAF8-794C-9756-B4B2E011478D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49552ADF-E8A3-D841-9F02-BF08CBEE21FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AllergyIntoleranceTable" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="5">Encounter!$A$1:$I$54</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -11255,6 +11254,21 @@
     <xf numFmtId="0" fontId="23" fillId="45" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -11307,21 +11321,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="44" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="19" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -11685,8 +11684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE7DEB-C8F0-114E-A052-43736963B722}">
   <dimension ref="A1:L111"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A80" zoomScale="200" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -11701,17 +11700,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -12685,7 +12684,7 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="36" t="s">
-        <v>46</v>
+        <v>232</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>29</v>
@@ -14368,17 +14367,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
     </row>
     <row r="2" spans="1:12" ht="75">
       <c r="A2" s="1" t="s">
@@ -16351,22 +16350,22 @@
       <c r="I85" s="30"/>
     </row>
     <row r="86" spans="1:9" ht="28">
-      <c r="A86" s="385"/>
-      <c r="B86" s="381" t="s">
+      <c r="A86" s="390"/>
+      <c r="B86" s="386" t="s">
         <v>305</v>
       </c>
-      <c r="C86" s="381"/>
-      <c r="D86" s="381"/>
-      <c r="E86" s="381" t="s">
+      <c r="C86" s="386"/>
+      <c r="D86" s="386"/>
+      <c r="E86" s="386" t="s">
         <v>46</v>
       </c>
-      <c r="F86" s="381" t="s">
+      <c r="F86" s="386" t="s">
         <v>47</v>
       </c>
-      <c r="G86" s="381" t="s">
+      <c r="G86" s="386" t="s">
         <v>306</v>
       </c>
-      <c r="H86" s="382" t="s">
+      <c r="H86" s="387" t="s">
         <v>257</v>
       </c>
       <c r="I86" s="30" t="s">
@@ -16374,27 +16373,27 @@
       </c>
     </row>
     <row r="87" spans="1:9">
-      <c r="A87" s="385"/>
-      <c r="B87" s="381"/>
-      <c r="C87" s="381"/>
-      <c r="D87" s="381"/>
-      <c r="E87" s="381"/>
-      <c r="F87" s="381"/>
-      <c r="G87" s="381"/>
-      <c r="H87" s="383"/>
+      <c r="A87" s="390"/>
+      <c r="B87" s="386"/>
+      <c r="C87" s="386"/>
+      <c r="D87" s="386"/>
+      <c r="E87" s="386"/>
+      <c r="F87" s="386"/>
+      <c r="G87" s="386"/>
+      <c r="H87" s="388"/>
       <c r="I87" s="30" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="88" spans="1:9">
-      <c r="A88" s="385"/>
-      <c r="B88" s="381"/>
-      <c r="C88" s="381"/>
-      <c r="D88" s="381"/>
-      <c r="E88" s="381"/>
-      <c r="F88" s="381"/>
-      <c r="G88" s="381"/>
-      <c r="H88" s="384"/>
+      <c r="A88" s="390"/>
+      <c r="B88" s="386"/>
+      <c r="C88" s="386"/>
+      <c r="D88" s="386"/>
+      <c r="E88" s="386"/>
+      <c r="F88" s="386"/>
+      <c r="G88" s="386"/>
+      <c r="H88" s="389"/>
       <c r="I88" s="30" t="s">
         <v>248</v>
       </c>
@@ -16617,18 +16616,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" customFormat="1" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
-      <c r="J1" s="386"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
+      <c r="J1" s="391"/>
     </row>
     <row r="2" spans="1:10" ht="76" thickBot="1">
       <c r="A2" s="106" t="s">
@@ -18767,17 +18766,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" thickBot="1">
-      <c r="A1" s="387" t="s">
+      <c r="A1" s="392" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="387"/>
-      <c r="C1" s="387"/>
-      <c r="D1" s="387"/>
-      <c r="E1" s="387"/>
-      <c r="F1" s="387"/>
-      <c r="G1" s="387"/>
-      <c r="H1" s="387"/>
-      <c r="I1" s="387"/>
+      <c r="B1" s="392"/>
+      <c r="C1" s="392"/>
+      <c r="D1" s="392"/>
+      <c r="E1" s="392"/>
+      <c r="F1" s="392"/>
+      <c r="G1" s="392"/>
+      <c r="H1" s="392"/>
+      <c r="I1" s="392"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="267" t="s">
@@ -18792,7 +18791,7 @@
       <c r="D2" s="268" t="s">
         <v>569</v>
       </c>
-      <c r="E2" s="401" t="s">
+      <c r="E2" s="383" t="s">
         <v>4</v>
       </c>
       <c r="F2" s="268" t="s">
@@ -18815,7 +18814,7 @@
       <c r="B3" s="271"/>
       <c r="C3" s="271"/>
       <c r="D3" s="271"/>
-      <c r="E3" s="402" t="s">
+      <c r="E3" s="384" t="s">
         <v>324</v>
       </c>
       <c r="F3" s="271" t="s">
@@ -19597,11 +19596,11 @@
         <v>216</v>
       </c>
       <c r="F37" s="354"/>
-      <c r="G37" s="388" t="s">
+      <c r="G37" s="393" t="s">
         <v>646</v>
       </c>
-      <c r="H37" s="390"/>
-      <c r="I37" s="392"/>
+      <c r="H37" s="395"/>
+      <c r="I37" s="397"/>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" s="270" t="s">
@@ -19618,9 +19617,9 @@
       <c r="F38" s="271" t="s">
         <v>499</v>
       </c>
-      <c r="G38" s="389"/>
-      <c r="H38" s="391"/>
-      <c r="I38" s="393"/>
+      <c r="G38" s="394"/>
+      <c r="H38" s="396"/>
+      <c r="I38" s="398"/>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="270" t="s">
@@ -19639,9 +19638,9 @@
       <c r="F39" s="271" t="s">
         <v>556</v>
       </c>
-      <c r="G39" s="389"/>
-      <c r="H39" s="391"/>
-      <c r="I39" s="393"/>
+      <c r="G39" s="394"/>
+      <c r="H39" s="396"/>
+      <c r="I39" s="398"/>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" s="270" t="s">
@@ -19660,9 +19659,9 @@
       <c r="F40" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="G40" s="389"/>
-      <c r="H40" s="391"/>
-      <c r="I40" s="393"/>
+      <c r="G40" s="394"/>
+      <c r="H40" s="396"/>
+      <c r="I40" s="398"/>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" s="270" t="s">
@@ -19681,9 +19680,9 @@
       <c r="F41" s="271" t="s">
         <v>442</v>
       </c>
-      <c r="G41" s="389"/>
-      <c r="H41" s="391"/>
-      <c r="I41" s="393"/>
+      <c r="G41" s="394"/>
+      <c r="H41" s="396"/>
+      <c r="I41" s="398"/>
     </row>
     <row r="42" spans="1:9" ht="21" thickBot="1">
       <c r="A42" s="355" t="s">
@@ -19700,9 +19699,9 @@
       <c r="F42" s="356" t="s">
         <v>442</v>
       </c>
-      <c r="G42" s="389"/>
-      <c r="H42" s="391"/>
-      <c r="I42" s="393"/>
+      <c r="G42" s="394"/>
+      <c r="H42" s="396"/>
+      <c r="I42" s="398"/>
     </row>
     <row r="43" spans="1:9" ht="60">
       <c r="A43" s="358" t="s">
@@ -20979,17 +20978,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="46" customHeight="1" thickBot="1">
-      <c r="A1" s="380" t="s">
+      <c r="A1" s="385" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="380"/>
-      <c r="C1" s="380"/>
-      <c r="D1" s="380"/>
-      <c r="E1" s="380"/>
-      <c r="F1" s="380"/>
-      <c r="G1" s="380"/>
-      <c r="H1" s="380"/>
-      <c r="I1" s="380"/>
+      <c r="B1" s="385"/>
+      <c r="C1" s="385"/>
+      <c r="D1" s="385"/>
+      <c r="E1" s="385"/>
+      <c r="F1" s="385"/>
+      <c r="G1" s="385"/>
+      <c r="H1" s="385"/>
+      <c r="I1" s="385"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="166" t="s">
@@ -22882,7 +22881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3324F69-8E84-A848-A7FF-2D5A2318CA27}">
   <dimension ref="A1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="125" zoomScaleNormal="170" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -22899,17 +22898,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="399" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
@@ -24127,22 +24126,22 @@
     <col min="6" max="6" width="9.28515625" style="259" customWidth="1"/>
     <col min="7" max="7" width="38.42578125" style="259" customWidth="1"/>
     <col min="8" max="8" width="3.85546875" style="259" customWidth="1"/>
-    <col min="9" max="9" width="20.85546875" style="399" customWidth="1"/>
+    <col min="9" max="9" width="20.85546875" style="381" customWidth="1"/>
     <col min="10" max="16384" width="10.7109375" style="259"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="51" customHeight="1" thickBot="1">
-      <c r="A1" s="394" t="s">
+      <c r="A1" s="399" t="s">
         <v>723</v>
       </c>
-      <c r="B1" s="394"/>
-      <c r="C1" s="394"/>
-      <c r="D1" s="394"/>
-      <c r="E1" s="394"/>
-      <c r="F1" s="394"/>
-      <c r="G1" s="394"/>
-      <c r="H1" s="394"/>
-      <c r="I1" s="394"/>
+      <c r="B1" s="399"/>
+      <c r="C1" s="399"/>
+      <c r="D1" s="399"/>
+      <c r="E1" s="399"/>
+      <c r="F1" s="399"/>
+      <c r="G1" s="399"/>
+      <c r="H1" s="399"/>
+      <c r="I1" s="399"/>
     </row>
     <row r="2" spans="1:9" ht="75">
       <c r="A2" s="1" t="s">
@@ -24380,7 +24379,7 @@
       <c r="H11" s="29" t="s">
         <v>722</v>
       </c>
-      <c r="I11" s="400" t="s">
+      <c r="I11" s="382" t="s">
         <v>886</v>
       </c>
     </row>
@@ -24575,17 +24574,17 @@
       </c>
     </row>
     <row r="20" spans="1:9" ht="32" customHeight="1">
-      <c r="A20" s="395" t="s">
+      <c r="A20" s="400" t="s">
         <v>905</v>
       </c>
-      <c r="B20" s="396"/>
-      <c r="C20" s="396"/>
-      <c r="D20" s="396"/>
-      <c r="E20" s="396"/>
-      <c r="F20" s="396"/>
-      <c r="G20" s="396"/>
-      <c r="H20" s="396"/>
-      <c r="I20" s="397"/>
+      <c r="B20" s="401"/>
+      <c r="C20" s="401"/>
+      <c r="D20" s="401"/>
+      <c r="E20" s="401"/>
+      <c r="F20" s="401"/>
+      <c r="G20" s="401"/>
+      <c r="H20" s="401"/>
+      <c r="I20" s="402"/>
     </row>
     <row r="21" spans="1:9" ht="30">
       <c r="A21" s="260" t="s">
@@ -24613,7 +24612,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" ht="226" thickBot="1">
-      <c r="A22" s="398" t="s">
+      <c r="A22" s="380" t="s">
         <v>901</v>
       </c>
       <c r="B22" s="34" t="s">
